--- a/data/fcdata.xlsx
+++ b/data/fcdata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="72">
   <si>
     <t xml:space="preserve">Study ID</t>
   </si>
@@ -613,12 +613,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R1553"/>
+  <dimension ref="A1:R1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A1535" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="B1510" activeCellId="0" sqref="B1510"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.63671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -47592,52 +47592,60 @@
     </row>
     <row r="1510" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1510" s="3" t="n">
-        <v>1510</v>
+        <v>1512</v>
       </c>
       <c r="B1510" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C1510" s="4"/>
+      <c r="C1510" s="4" t="n">
+        <v>61</v>
+      </c>
       <c r="D1510" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="E1510" s="4"/>
-      <c r="F1510" s="4"/>
-      <c r="G1510" s="4"/>
-      <c r="H1510" s="4"/>
-      <c r="I1510" s="4"/>
-      <c r="J1510" s="4"/>
-      <c r="K1510" s="4"/>
-      <c r="L1510" s="4"/>
-      <c r="M1510" s="4"/>
-      <c r="N1510" s="4"/>
-      <c r="O1510" s="4"/>
-      <c r="P1510" s="4"/>
-      <c r="Q1510" s="4"/>
-      <c r="R1510" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="E1510" s="4" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="F1510" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="G1510" s="4" t="n">
+        <v>36</v>
+      </c>
+      <c r="H1510" s="5"/>
+      <c r="I1510" s="5"/>
+      <c r="J1510" s="5"/>
+      <c r="K1510" s="8"/>
+      <c r="L1510" s="8"/>
+      <c r="M1510" s="8"/>
+      <c r="N1510" s="8"/>
+      <c r="O1510" s="8"/>
+      <c r="P1510" s="8"/>
+      <c r="Q1510" s="8"/>
+      <c r="R1510" s="8"/>
     </row>
     <row r="1511" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1511" s="3" t="n">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="B1511" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C1511" s="4"/>
       <c r="D1511" s="4" t="n">
-        <v>18</v>
+        <v>349</v>
       </c>
       <c r="E1511" s="4" t="n">
-        <v>29.31</v>
+        <v>63</v>
       </c>
       <c r="F1511" s="4" t="n">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="G1511" s="4" t="n">
-        <v>9</v>
+        <v>247</v>
       </c>
       <c r="H1511" s="4" t="n">
-        <v>18</v>
+        <v>345</v>
       </c>
       <c r="I1511" s="4"/>
       <c r="J1511" s="4"/>
@@ -47652,61 +47660,59 @@
     </row>
     <row r="1512" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1512" s="3" t="n">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="B1512" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C1512" s="4" t="n">
-        <v>61</v>
+        <v>324</v>
       </c>
       <c r="D1512" s="4" t="n">
-        <v>61</v>
+        <v>324</v>
       </c>
       <c r="E1512" s="4" t="n">
-        <v>43.5</v>
+        <v>70.05</v>
       </c>
       <c r="F1512" s="4" t="n">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="G1512" s="4" t="n">
-        <v>36</v>
-      </c>
-      <c r="H1512" s="5"/>
-      <c r="I1512" s="5"/>
-      <c r="J1512" s="5"/>
-      <c r="K1512" s="8"/>
-      <c r="L1512" s="8"/>
-      <c r="M1512" s="8"/>
-      <c r="N1512" s="8"/>
-      <c r="O1512" s="8"/>
-      <c r="P1512" s="8"/>
-      <c r="Q1512" s="8"/>
-      <c r="R1512" s="8"/>
+        <v>194</v>
+      </c>
+      <c r="H1512" s="4"/>
+      <c r="I1512" s="4"/>
+      <c r="J1512" s="4"/>
+      <c r="K1512" s="4"/>
+      <c r="L1512" s="4"/>
+      <c r="M1512" s="4"/>
+      <c r="N1512" s="4"/>
+      <c r="O1512" s="4"/>
+      <c r="P1512" s="4"/>
+      <c r="Q1512" s="4"/>
+      <c r="R1512" s="4"/>
     </row>
     <row r="1513" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1513" s="3" t="n">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="B1513" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C1513" s="4"/>
       <c r="D1513" s="4" t="n">
-        <v>349</v>
-      </c>
-      <c r="E1513" s="4" t="n">
-        <v>63</v>
+        <v>73</v>
+      </c>
+      <c r="E1513" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="F1513" s="4" t="n">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="G1513" s="4" t="n">
-        <v>247</v>
-      </c>
-      <c r="H1513" s="4" t="n">
-        <v>345</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="H1513" s="4"/>
       <c r="I1513" s="4"/>
       <c r="J1513" s="4"/>
       <c r="K1513" s="4"/>
@@ -47720,25 +47726,23 @@
     </row>
     <row r="1514" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1514" s="3" t="n">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="B1514" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C1514" s="4" t="n">
-        <v>324</v>
-      </c>
+      <c r="C1514" s="4"/>
       <c r="D1514" s="4" t="n">
-        <v>324</v>
+        <v>49</v>
       </c>
       <c r="E1514" s="4" t="n">
-        <v>70.05</v>
+        <v>24.4</v>
       </c>
       <c r="F1514" s="4" t="n">
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="G1514" s="4" t="n">
-        <v>194</v>
+        <v>10</v>
       </c>
       <c r="H1514" s="4"/>
       <c r="I1514" s="4"/>
@@ -47754,24 +47758,18 @@
     </row>
     <row r="1515" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1515" s="3" t="n">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="B1515" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C1515" s="4"/>
       <c r="D1515" s="4" t="n">
-        <v>73</v>
-      </c>
-      <c r="E1515" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1515" s="4" t="n">
-        <v>48</v>
-      </c>
-      <c r="G1515" s="4" t="n">
-        <v>25</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="E1515" s="4"/>
+      <c r="F1515" s="4"/>
+      <c r="G1515" s="4"/>
       <c r="H1515" s="4"/>
       <c r="I1515" s="4"/>
       <c r="J1515" s="4"/>
@@ -47786,23 +47784,23 @@
     </row>
     <row r="1516" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1516" s="3" t="n">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="B1516" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C1516" s="4"/>
       <c r="D1516" s="4" t="n">
-        <v>49</v>
+        <v>223</v>
       </c>
       <c r="E1516" s="4" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="F1516" s="4" t="n">
-        <v>39</v>
+        <v>170</v>
       </c>
       <c r="G1516" s="4" t="n">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="H1516" s="4"/>
       <c r="I1516" s="4"/>
@@ -47818,18 +47816,24 @@
     </row>
     <row r="1517" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1517" s="3" t="n">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="B1517" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C1517" s="4"/>
       <c r="D1517" s="4" t="n">
-        <v>184</v>
-      </c>
-      <c r="E1517" s="4"/>
-      <c r="F1517" s="4"/>
-      <c r="G1517" s="4"/>
+        <v>85</v>
+      </c>
+      <c r="E1517" s="4" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="F1517" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="G1517" s="4" t="n">
+        <v>31</v>
+      </c>
       <c r="H1517" s="4"/>
       <c r="I1517" s="4"/>
       <c r="J1517" s="4"/>
@@ -47844,23 +47848,23 @@
     </row>
     <row r="1518" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1518" s="3" t="n">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="B1518" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C1518" s="4"/>
       <c r="D1518" s="4" t="n">
-        <v>223</v>
+        <v>177</v>
       </c>
       <c r="E1518" s="4" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="F1518" s="4" t="n">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="G1518" s="4" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H1518" s="4"/>
       <c r="I1518" s="4"/>
@@ -47876,23 +47880,25 @@
     </row>
     <row r="1519" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1519" s="3" t="n">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="B1519" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1519" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="C1519" s="4" t="n">
+        <v>29</v>
+      </c>
       <c r="D1519" s="4" t="n">
-        <v>85</v>
+        <v>142</v>
       </c>
       <c r="E1519" s="4" t="n">
-        <v>23.1</v>
+        <v>73.6</v>
       </c>
       <c r="F1519" s="4" t="n">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G1519" s="4" t="n">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="H1519" s="4"/>
       <c r="I1519" s="4"/>
@@ -47908,23 +47914,23 @@
     </row>
     <row r="1520" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1520" s="3" t="n">
-        <v>1520</v>
+        <v>1522</v>
       </c>
       <c r="B1520" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C1520" s="4"/>
       <c r="D1520" s="4" t="n">
-        <v>177</v>
+        <v>279</v>
       </c>
       <c r="E1520" s="4" t="n">
-        <v>24.2</v>
+        <v>32.6</v>
       </c>
       <c r="F1520" s="4" t="n">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="G1520" s="4" t="n">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="H1520" s="4"/>
       <c r="I1520" s="4"/>
@@ -47940,25 +47946,23 @@
     </row>
     <row r="1521" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1521" s="3" t="n">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="B1521" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1521" s="4" t="n">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C1521" s="4"/>
       <c r="D1521" s="4" t="n">
-        <v>142</v>
+        <v>208</v>
       </c>
       <c r="E1521" s="4" t="n">
-        <v>73.6</v>
+        <v>8.4</v>
       </c>
       <c r="F1521" s="4" t="n">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="G1521" s="4" t="n">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="H1521" s="4"/>
       <c r="I1521" s="4"/>
@@ -47974,26 +47978,30 @@
     </row>
     <row r="1522" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1522" s="3" t="n">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="B1522" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C1522" s="4"/>
-      <c r="D1522" s="4" t="n">
-        <v>279</v>
-      </c>
+      <c r="C1522" s="4" t="n">
+        <v>58</v>
+      </c>
+      <c r="D1522" s="4"/>
       <c r="E1522" s="4" t="n">
-        <v>32.6</v>
+        <v>18.5</v>
       </c>
       <c r="F1522" s="4" t="n">
-        <v>144</v>
+        <v>22</v>
       </c>
       <c r="G1522" s="4" t="n">
-        <v>135</v>
-      </c>
-      <c r="H1522" s="4"/>
-      <c r="I1522" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="H1522" s="4" t="n">
+        <v>56</v>
+      </c>
+      <c r="I1522" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="J1522" s="4"/>
       <c r="K1522" s="4"/>
       <c r="L1522" s="4"/>
@@ -48002,27 +48010,29 @@
       <c r="O1522" s="4"/>
       <c r="P1522" s="4"/>
       <c r="Q1522" s="4"/>
-      <c r="R1522" s="4"/>
-    </row>
-    <row r="1523" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R1522" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1523" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1523" s="3" t="n">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="B1523" s="4" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="C1523" s="4"/>
       <c r="D1523" s="4" t="n">
-        <v>208</v>
+        <v>1029</v>
       </c>
       <c r="E1523" s="4" t="n">
-        <v>8.4</v>
+        <v>15.02</v>
       </c>
       <c r="F1523" s="4" t="n">
-        <v>86</v>
+        <v>494</v>
       </c>
       <c r="G1523" s="4" t="n">
-        <v>122</v>
+        <v>535</v>
       </c>
       <c r="H1523" s="4"/>
       <c r="I1523" s="4"/>
@@ -48038,30 +48048,26 @@
     </row>
     <row r="1524" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1524" s="3" t="n">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="B1524" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C1524" s="4" t="n">
-        <v>58</v>
-      </c>
-      <c r="D1524" s="4"/>
+      <c r="C1524" s="4"/>
+      <c r="D1524" s="4" t="n">
+        <v>63</v>
+      </c>
       <c r="E1524" s="4" t="n">
-        <v>18.5</v>
+        <v>11.5</v>
       </c>
       <c r="F1524" s="4" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G1524" s="4" t="n">
-        <v>36</v>
-      </c>
-      <c r="H1524" s="4" t="n">
-        <v>56</v>
-      </c>
-      <c r="I1524" s="4" t="n">
-        <v>1</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="H1524" s="4"/>
+      <c r="I1524" s="4"/>
       <c r="J1524" s="4"/>
       <c r="K1524" s="4"/>
       <c r="L1524" s="4"/>
@@ -48070,29 +48076,25 @@
       <c r="O1524" s="4"/>
       <c r="P1524" s="4"/>
       <c r="Q1524" s="4"/>
-      <c r="R1524" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1525" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R1524" s="4"/>
+    </row>
+    <row r="1525" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1525" s="3" t="n">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="B1525" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C1525" s="4"/>
       <c r="D1525" s="4" t="n">
-        <v>1029</v>
-      </c>
-      <c r="E1525" s="4" t="n">
-        <v>15.02</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="E1525" s="6"/>
       <c r="F1525" s="4" t="n">
-        <v>494</v>
+        <v>249</v>
       </c>
       <c r="G1525" s="4" t="n">
-        <v>535</v>
+        <v>200</v>
       </c>
       <c r="H1525" s="4"/>
       <c r="I1525" s="4"/>
@@ -48108,23 +48110,23 @@
     </row>
     <row r="1526" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1526" s="3" t="n">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="B1526" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C1526" s="4"/>
       <c r="D1526" s="4" t="n">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="E1526" s="4" t="n">
-        <v>11.5</v>
+        <v>0.75</v>
       </c>
       <c r="F1526" s="4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G1526" s="4" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H1526" s="4"/>
       <c r="I1526" s="4"/>
@@ -48138,23 +48140,25 @@
       <c r="Q1526" s="4"/>
       <c r="R1526" s="4"/>
     </row>
-    <row r="1527" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1527" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1527" s="3" t="n">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="B1527" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1527" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="C1527" s="4" t="n">
+        <v>10</v>
+      </c>
       <c r="D1527" s="4" t="n">
-        <v>449</v>
-      </c>
-      <c r="E1527" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="E1527" s="4"/>
       <c r="F1527" s="4" t="n">
-        <v>249</v>
+        <v>5</v>
       </c>
       <c r="G1527" s="4" t="n">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="H1527" s="4"/>
       <c r="I1527" s="4"/>
@@ -48170,23 +48174,21 @@
     </row>
     <row r="1528" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1528" s="3" t="n">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="B1528" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C1528" s="4"/>
       <c r="D1528" s="4" t="n">
-        <v>43</v>
-      </c>
-      <c r="E1528" s="4" t="n">
-        <v>0.75</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E1528" s="4"/>
       <c r="F1528" s="4" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="G1528" s="4" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H1528" s="4"/>
       <c r="I1528" s="4"/>
@@ -48202,23 +48204,23 @@
     </row>
     <row r="1529" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1529" s="3" t="n">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="B1529" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C1529" s="4" t="n">
-        <v>10</v>
-      </c>
+      <c r="C1529" s="4"/>
       <c r="D1529" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="E1529" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="E1529" s="4" t="n">
+        <v>53.03</v>
+      </c>
       <c r="F1529" s="4" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G1529" s="4" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H1529" s="4"/>
       <c r="I1529" s="4"/>
@@ -48234,21 +48236,21 @@
     </row>
     <row r="1530" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1530" s="3" t="n">
-        <v>1530</v>
+        <v>1532</v>
       </c>
       <c r="B1530" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C1530" s="4"/>
       <c r="D1530" s="4" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E1530" s="4"/>
       <c r="F1530" s="4" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G1530" s="4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H1530" s="4"/>
       <c r="I1530" s="4"/>
@@ -48262,25 +48264,25 @@
       <c r="Q1530" s="4"/>
       <c r="R1530" s="4"/>
     </row>
-    <row r="1531" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1531" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1531" s="3" t="n">
-        <v>1531</v>
+        <v>1533</v>
       </c>
       <c r="B1531" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C1531" s="4"/>
-      <c r="D1531" s="4" t="n">
-        <v>32</v>
-      </c>
+      <c r="C1531" s="4" t="n">
+        <v>36</v>
+      </c>
+      <c r="D1531" s="4"/>
       <c r="E1531" s="4" t="n">
-        <v>53.03</v>
+        <v>40.5</v>
       </c>
       <c r="F1531" s="4" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G1531" s="4" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H1531" s="4"/>
       <c r="I1531" s="4"/>
@@ -48296,21 +48298,21 @@
     </row>
     <row r="1532" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1532" s="3" t="n">
-        <v>1532</v>
+        <v>1534</v>
       </c>
       <c r="B1532" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C1532" s="4"/>
       <c r="D1532" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="E1532" s="4"/>
-      <c r="F1532" s="4" t="n">
-        <v>4</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E1532" s="4" t="n">
+        <v>43.67</v>
+      </c>
+      <c r="F1532" s="4"/>
       <c r="G1532" s="4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H1532" s="4"/>
       <c r="I1532" s="4"/>
@@ -48324,25 +48326,25 @@
       <c r="Q1532" s="4"/>
       <c r="R1532" s="4"/>
     </row>
-    <row r="1533" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1533" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1533" s="3" t="n">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="B1533" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C1533" s="4" t="n">
-        <v>36</v>
-      </c>
-      <c r="D1533" s="4"/>
+      <c r="C1533" s="4"/>
+      <c r="D1533" s="4" t="n">
+        <v>19</v>
+      </c>
       <c r="E1533" s="4" t="n">
-        <v>40.5</v>
+        <v>35</v>
       </c>
       <c r="F1533" s="4" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G1533" s="4" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="H1533" s="4"/>
       <c r="I1533" s="4"/>
@@ -48358,21 +48360,23 @@
     </row>
     <row r="1534" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1534" s="3" t="n">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="B1534" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C1534" s="4"/>
       <c r="D1534" s="4" t="n">
-        <v>6</v>
+        <v>202</v>
       </c>
       <c r="E1534" s="4" t="n">
-        <v>43.67</v>
-      </c>
-      <c r="F1534" s="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="F1534" s="4" t="n">
+        <v>113</v>
+      </c>
       <c r="G1534" s="4" t="n">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="H1534" s="4"/>
       <c r="I1534" s="4"/>
@@ -48388,23 +48392,23 @@
     </row>
     <row r="1535" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1535" s="3" t="n">
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="B1535" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C1535" s="4"/>
       <c r="D1535" s="4" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E1535" s="4" t="n">
-        <v>35</v>
+        <v>10.57</v>
       </c>
       <c r="F1535" s="4" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G1535" s="4" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H1535" s="4"/>
       <c r="I1535" s="4"/>
@@ -48420,23 +48424,23 @@
     </row>
     <row r="1536" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1536" s="3" t="n">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="B1536" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C1536" s="4"/>
       <c r="D1536" s="4" t="n">
-        <v>202</v>
+        <v>23</v>
       </c>
       <c r="E1536" s="4" t="n">
-        <v>0.75</v>
+        <v>23.3</v>
       </c>
       <c r="F1536" s="4" t="n">
-        <v>113</v>
+        <v>9</v>
       </c>
       <c r="G1536" s="4" t="n">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="H1536" s="4"/>
       <c r="I1536" s="4"/>
@@ -48452,24 +48456,24 @@
     </row>
     <row r="1537" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1537" s="3" t="n">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="B1537" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C1537" s="4"/>
+      <c r="C1537" s="4" t="n">
+        <v>6</v>
+      </c>
       <c r="D1537" s="4" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E1537" s="4" t="n">
-        <v>10.57</v>
+        <v>23.7</v>
       </c>
       <c r="F1537" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="G1537" s="4" t="n">
-        <v>17</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="G1537" s="4"/>
       <c r="H1537" s="4"/>
       <c r="I1537" s="4"/>
       <c r="J1537" s="4"/>
@@ -48484,24 +48488,18 @@
     </row>
     <row r="1538" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1538" s="3" t="n">
-        <v>1538</v>
+        <v>1540</v>
       </c>
       <c r="B1538" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C1538" s="4"/>
       <c r="D1538" s="4" t="n">
-        <v>23</v>
-      </c>
-      <c r="E1538" s="4" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="F1538" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="G1538" s="4" t="n">
-        <v>14</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E1538" s="4"/>
+      <c r="F1538" s="4"/>
+      <c r="G1538" s="4"/>
       <c r="H1538" s="4"/>
       <c r="I1538" s="4"/>
       <c r="J1538" s="4"/>
@@ -48516,24 +48514,24 @@
     </row>
     <row r="1539" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1539" s="3" t="n">
-        <v>1539</v>
+        <v>1541</v>
       </c>
       <c r="B1539" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C1539" s="4" t="n">
-        <v>6</v>
-      </c>
+      <c r="C1539" s="4"/>
       <c r="D1539" s="4" t="n">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="E1539" s="4" t="n">
-        <v>23.7</v>
+        <v>63</v>
       </c>
       <c r="F1539" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="G1539" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="G1539" s="4" t="n">
+        <v>15</v>
+      </c>
       <c r="H1539" s="4"/>
       <c r="I1539" s="4"/>
       <c r="J1539" s="4"/>
@@ -48548,16 +48546,20 @@
     </row>
     <row r="1540" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1540" s="3" t="n">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="B1540" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C1540" s="4"/>
+      <c r="C1540" s="4" t="n">
+        <v>29</v>
+      </c>
       <c r="D1540" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="E1540" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="E1540" s="4" t="n">
+        <v>73.6</v>
+      </c>
       <c r="F1540" s="4"/>
       <c r="G1540" s="4"/>
       <c r="H1540" s="4"/>
@@ -48574,23 +48576,23 @@
     </row>
     <row r="1541" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1541" s="3" t="n">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="B1541" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C1541" s="4"/>
       <c r="D1541" s="4" t="n">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="E1541" s="4" t="n">
-        <v>63</v>
+        <v>33.02</v>
       </c>
       <c r="F1541" s="4" t="n">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="G1541" s="4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H1541" s="4"/>
       <c r="I1541" s="4"/>
@@ -48606,22 +48608,22 @@
     </row>
     <row r="1542" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1542" s="3" t="n">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="B1542" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C1542" s="4" t="n">
-        <v>29</v>
-      </c>
+      <c r="C1542" s="4"/>
       <c r="D1542" s="4" t="n">
-        <v>29</v>
-      </c>
-      <c r="E1542" s="4" t="n">
-        <v>73.6</v>
-      </c>
-      <c r="F1542" s="4"/>
-      <c r="G1542" s="4"/>
+        <v>110</v>
+      </c>
+      <c r="E1542" s="4"/>
+      <c r="F1542" s="4" t="n">
+        <v>33</v>
+      </c>
+      <c r="G1542" s="4" t="n">
+        <v>77</v>
+      </c>
       <c r="H1542" s="4"/>
       <c r="I1542" s="4"/>
       <c r="J1542" s="4"/>
@@ -48636,23 +48638,23 @@
     </row>
     <row r="1543" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1543" s="3" t="n">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="B1543" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C1543" s="4"/>
       <c r="D1543" s="4" t="n">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="E1543" s="4" t="n">
-        <v>33.02</v>
+        <v>27</v>
       </c>
       <c r="F1543" s="4" t="n">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="G1543" s="4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H1543" s="4"/>
       <c r="I1543" s="4"/>
@@ -48668,21 +48670,23 @@
     </row>
     <row r="1544" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1544" s="3" t="n">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="B1544" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C1544" s="4"/>
       <c r="D1544" s="4" t="n">
-        <v>110</v>
-      </c>
-      <c r="E1544" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="E1544" s="4" t="n">
+        <v>25.2</v>
+      </c>
       <c r="F1544" s="4" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G1544" s="4" t="n">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="H1544" s="4"/>
       <c r="I1544" s="4"/>
@@ -48698,23 +48702,21 @@
     </row>
     <row r="1545" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1545" s="3" t="n">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="B1545" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C1545" s="4"/>
+      <c r="C1545" s="3"/>
       <c r="D1545" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="E1545" s="4" t="n">
-        <v>27</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E1545" s="4"/>
       <c r="F1545" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1545" s="4" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H1545" s="4"/>
       <c r="I1545" s="4"/>
@@ -48730,23 +48732,21 @@
     </row>
     <row r="1546" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1546" s="3" t="n">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="B1546" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C1546" s="4"/>
+      <c r="C1546" s="3"/>
       <c r="D1546" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="E1546" s="4" t="n">
-        <v>25.2</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E1546" s="4"/>
       <c r="F1546" s="4" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="G1546" s="4" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H1546" s="4"/>
       <c r="I1546" s="4"/>
@@ -48762,22 +48762,18 @@
     </row>
     <row r="1547" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1547" s="3" t="n">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="B1547" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C1547" s="3"/>
       <c r="D1547" s="4" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E1547" s="4"/>
-      <c r="F1547" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="G1547" s="4" t="n">
-        <v>14</v>
-      </c>
+      <c r="F1547" s="4"/>
+      <c r="G1547" s="4"/>
       <c r="H1547" s="4"/>
       <c r="I1547" s="4"/>
       <c r="J1547" s="4"/>
@@ -48792,21 +48788,23 @@
     </row>
     <row r="1548" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1548" s="3" t="n">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="B1548" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C1548" s="3"/>
       <c r="D1548" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="E1548" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="E1548" s="4" t="n">
+        <v>25.7</v>
+      </c>
       <c r="F1548" s="4" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G1548" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H1548" s="4"/>
       <c r="I1548" s="4"/>
@@ -48822,18 +48820,24 @@
     </row>
     <row r="1549" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1549" s="3" t="n">
-        <v>1549</v>
+        <v>1552</v>
       </c>
       <c r="B1549" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C1549" s="3"/>
+      <c r="C1549" s="4"/>
       <c r="D1549" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="E1549" s="4"/>
-      <c r="F1549" s="4"/>
-      <c r="G1549" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="E1549" s="4" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="F1549" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="G1549" s="4" t="n">
+        <v>10</v>
+      </c>
       <c r="H1549" s="4"/>
       <c r="I1549" s="4"/>
       <c r="J1549" s="4"/>
@@ -48848,24 +48852,22 @@
     </row>
     <row r="1550" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1550" s="3" t="n">
-        <v>1550</v>
+        <v>1553</v>
       </c>
       <c r="B1550" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C1550" s="3"/>
+      <c r="C1550" s="4"/>
       <c r="D1550" s="4" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E1550" s="4" t="n">
-        <v>25.7</v>
+        <v>33</v>
       </c>
       <c r="F1550" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="G1550" s="4" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="G1550" s="4"/>
       <c r="H1550" s="4"/>
       <c r="I1550" s="4"/>
       <c r="J1550" s="4"/>
@@ -48878,100 +48880,9 @@
       <c r="Q1550" s="4"/>
       <c r="R1550" s="4"/>
     </row>
-    <row r="1551" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1551" s="3" t="n">
-        <v>1551</v>
-      </c>
-      <c r="B1551" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1551" s="4"/>
-      <c r="D1551" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="E1551" s="4" t="n">
-        <v>34</v>
-      </c>
-      <c r="F1551" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="G1551" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="H1551" s="4"/>
-      <c r="I1551" s="4"/>
-      <c r="J1551" s="4"/>
-      <c r="K1551" s="4"/>
-      <c r="L1551" s="4"/>
-      <c r="M1551" s="4"/>
-      <c r="N1551" s="4"/>
-      <c r="O1551" s="4"/>
-      <c r="P1551" s="4"/>
-      <c r="Q1551" s="4"/>
-      <c r="R1551" s="4"/>
-    </row>
-    <row r="1552" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1552" s="3" t="n">
-        <v>1552</v>
-      </c>
-      <c r="B1552" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1552" s="4"/>
-      <c r="D1552" s="4" t="n">
-        <v>33</v>
-      </c>
-      <c r="E1552" s="4" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="F1552" s="4" t="n">
-        <v>23</v>
-      </c>
-      <c r="G1552" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="H1552" s="4"/>
-      <c r="I1552" s="4"/>
-      <c r="J1552" s="4"/>
-      <c r="K1552" s="4"/>
-      <c r="L1552" s="4"/>
-      <c r="M1552" s="4"/>
-      <c r="N1552" s="4"/>
-      <c r="O1552" s="4"/>
-      <c r="P1552" s="4"/>
-      <c r="Q1552" s="4"/>
-      <c r="R1552" s="4"/>
-    </row>
-    <row r="1553" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1553" s="3" t="n">
-        <v>1553</v>
-      </c>
-      <c r="B1553" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1553" s="4"/>
-      <c r="D1553" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1553" s="4" t="n">
-        <v>33</v>
-      </c>
-      <c r="F1553" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="G1553" s="4"/>
-      <c r="H1553" s="4"/>
-      <c r="I1553" s="4"/>
-      <c r="J1553" s="4"/>
-      <c r="K1553" s="4"/>
-      <c r="L1553" s="4"/>
-      <c r="M1553" s="4"/>
-      <c r="N1553" s="4"/>
-      <c r="O1553" s="4"/>
-      <c r="P1553" s="4"/>
-      <c r="Q1553" s="4"/>
-      <c r="R1553" s="4"/>
-    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
